--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.44337896692771</v>
+        <v>11.905615</v>
       </c>
       <c r="H2">
-        <v>5.44337896692771</v>
+        <v>35.716845</v>
       </c>
       <c r="I2">
-        <v>0.6817537573973083</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="J2">
-        <v>0.6817537573973083</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.36372569571443</v>
+        <v>4.913477</v>
       </c>
       <c r="N2">
-        <v>3.36372569571443</v>
+        <v>14.740431</v>
       </c>
       <c r="O2">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918886</v>
       </c>
       <c r="P2">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918885</v>
       </c>
       <c r="Q2">
-        <v>18.31003370256621</v>
+        <v>58.497965473355</v>
       </c>
       <c r="R2">
-        <v>18.31003370256621</v>
+        <v>526.481689260195</v>
       </c>
       <c r="S2">
-        <v>0.1688590506331893</v>
+        <v>0.2624614168514208</v>
       </c>
       <c r="T2">
-        <v>0.1688590506331893</v>
+        <v>0.2624614168514207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.44337896692771</v>
+        <v>11.905615</v>
       </c>
       <c r="H3">
-        <v>5.44337896692771</v>
+        <v>35.716845</v>
       </c>
       <c r="I3">
-        <v>0.6817537573973083</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="J3">
-        <v>0.6817537573973083</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.86427107569608</v>
+        <v>3.864911333333334</v>
       </c>
       <c r="N3">
-        <v>3.86427107569608</v>
+        <v>11.594734</v>
       </c>
       <c r="O3">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="P3">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="Q3">
-        <v>21.03469189595116</v>
+        <v>46.01414634380333</v>
       </c>
       <c r="R3">
-        <v>21.03469189595116</v>
+        <v>414.12731709423</v>
       </c>
       <c r="S3">
-        <v>0.1939864317898084</v>
+        <v>0.2064505653637496</v>
       </c>
       <c r="T3">
-        <v>0.1939864317898084</v>
+        <v>0.2064505653637496</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.44337896692771</v>
+        <v>11.905615</v>
       </c>
       <c r="H4">
-        <v>5.44337896692771</v>
+        <v>35.716845</v>
       </c>
       <c r="I4">
-        <v>0.6817537573973083</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="J4">
-        <v>0.6817537573973083</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.35275370247882</v>
+        <v>6.567164333333333</v>
       </c>
       <c r="N4">
-        <v>6.35275370247882</v>
+        <v>19.701493</v>
       </c>
       <c r="O4">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287917</v>
       </c>
       <c r="P4">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287916</v>
       </c>
       <c r="Q4">
-        <v>34.58044588614535</v>
+        <v>78.18613019439833</v>
       </c>
       <c r="R4">
-        <v>34.58044588614535</v>
+        <v>703.6751717495849</v>
       </c>
       <c r="S4">
-        <v>0.3189082749743106</v>
+        <v>0.3507958326909402</v>
       </c>
       <c r="T4">
-        <v>0.3189082749743106</v>
+        <v>0.3507958326909402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.60147836202672</v>
+        <v>1.63134</v>
       </c>
       <c r="H5">
-        <v>1.60147836202672</v>
+        <v>4.894019999999999</v>
       </c>
       <c r="I5">
-        <v>0.2005764980420667</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="J5">
-        <v>0.2005764980420667</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.36372569571443</v>
+        <v>4.913477</v>
       </c>
       <c r="N5">
-        <v>3.36372569571443</v>
+        <v>14.740431</v>
       </c>
       <c r="O5">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918886</v>
       </c>
       <c r="P5">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918885</v>
       </c>
       <c r="Q5">
-        <v>5.386933917479935</v>
+        <v>8.015551569179999</v>
       </c>
       <c r="R5">
-        <v>5.386933917479935</v>
+        <v>72.13996412262</v>
       </c>
       <c r="S5">
-        <v>0.04967945782655228</v>
+        <v>0.03596318273070285</v>
       </c>
       <c r="T5">
-        <v>0.04967945782655228</v>
+        <v>0.03596318273070284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.60147836202672</v>
+        <v>1.63134</v>
       </c>
       <c r="H6">
-        <v>1.60147836202672</v>
+        <v>4.894019999999999</v>
       </c>
       <c r="I6">
-        <v>0.2005764980420667</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="J6">
-        <v>0.2005764980420667</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.86427107569608</v>
+        <v>3.864911333333334</v>
       </c>
       <c r="N6">
-        <v>3.86427107569608</v>
+        <v>11.594734</v>
       </c>
       <c r="O6">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="P6">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="Q6">
-        <v>6.188546512732989</v>
+        <v>6.30498445452</v>
       </c>
       <c r="R6">
-        <v>6.188546512732989</v>
+        <v>56.74486009068</v>
       </c>
       <c r="S6">
-        <v>0.05707210078990558</v>
+        <v>0.02828842233689728</v>
       </c>
       <c r="T6">
-        <v>0.05707210078990558</v>
+        <v>0.02828842233689728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.60147836202672</v>
+        <v>1.63134</v>
       </c>
       <c r="H7">
-        <v>1.60147836202672</v>
+        <v>4.894019999999999</v>
       </c>
       <c r="I7">
-        <v>0.2005764980420667</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="J7">
-        <v>0.2005764980420667</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.35275370247882</v>
+        <v>6.567164333333333</v>
       </c>
       <c r="N7">
-        <v>6.35275370247882</v>
+        <v>19.701493</v>
       </c>
       <c r="O7">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287917</v>
       </c>
       <c r="P7">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287916</v>
       </c>
       <c r="Q7">
-        <v>10.17379759380496</v>
+        <v>10.71327786354</v>
       </c>
       <c r="R7">
-        <v>10.17379759380496</v>
+        <v>96.41950077185999</v>
       </c>
       <c r="S7">
-        <v>0.09382493942560885</v>
+        <v>0.04806700650928477</v>
       </c>
       <c r="T7">
-        <v>0.09382493942560885</v>
+        <v>0.04806700650928476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.939519592866408</v>
+        <v>0.9872630000000001</v>
       </c>
       <c r="H8">
-        <v>0.939519592866408</v>
+        <v>2.961789</v>
       </c>
       <c r="I8">
-        <v>0.1176697445606251</v>
+        <v>0.0679735735170045</v>
       </c>
       <c r="J8">
-        <v>0.1176697445606251</v>
+        <v>0.0679735735170045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.36372569571443</v>
+        <v>4.913477</v>
       </c>
       <c r="N8">
-        <v>3.36372569571443</v>
+        <v>14.740431</v>
       </c>
       <c r="O8">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918886</v>
       </c>
       <c r="P8">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918885</v>
       </c>
       <c r="Q8">
-        <v>3.160286196151896</v>
+        <v>4.850894043451001</v>
       </c>
       <c r="R8">
-        <v>3.160286196151896</v>
+        <v>43.65804639105901</v>
       </c>
       <c r="S8">
-        <v>0.02914483585776199</v>
+        <v>0.02176438980976491</v>
       </c>
       <c r="T8">
-        <v>0.02914483585776199</v>
+        <v>0.02176438980976491</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.939519592866408</v>
+        <v>0.9872630000000001</v>
       </c>
       <c r="H9">
-        <v>0.939519592866408</v>
+        <v>2.961789</v>
       </c>
       <c r="I9">
-        <v>0.1176697445606251</v>
+        <v>0.0679735735170045</v>
       </c>
       <c r="J9">
-        <v>0.1176697445606251</v>
+        <v>0.0679735735170045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.86427107569608</v>
+        <v>3.864911333333334</v>
       </c>
       <c r="N9">
-        <v>3.86427107569608</v>
+        <v>11.594734</v>
       </c>
       <c r="O9">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="P9">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="Q9">
-        <v>3.630558387763418</v>
+        <v>3.815683957680667</v>
       </c>
       <c r="R9">
-        <v>3.630558387763418</v>
+        <v>34.34115561912601</v>
       </c>
       <c r="S9">
-        <v>0.03348178668508795</v>
+        <v>0.01711973757867288</v>
       </c>
       <c r="T9">
-        <v>0.03348178668508795</v>
+        <v>0.01711973757867288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.939519592866408</v>
+        <v>0.9872630000000001</v>
       </c>
       <c r="H10">
-        <v>0.939519592866408</v>
+        <v>2.961789</v>
       </c>
       <c r="I10">
-        <v>0.1176697445606251</v>
+        <v>0.0679735735170045</v>
       </c>
       <c r="J10">
-        <v>0.1176697445606251</v>
+        <v>0.0679735735170045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.35275370247882</v>
+        <v>6.567164333333333</v>
       </c>
       <c r="N10">
-        <v>6.35275370247882</v>
+        <v>19.701493</v>
       </c>
       <c r="O10">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287917</v>
       </c>
       <c r="P10">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287916</v>
       </c>
       <c r="Q10">
-        <v>5.968536572133466</v>
+        <v>6.483518361219668</v>
       </c>
       <c r="R10">
-        <v>5.968536572133466</v>
+        <v>58.35166525097701</v>
       </c>
       <c r="S10">
-        <v>0.05504312201777514</v>
+        <v>0.02908944612856671</v>
       </c>
       <c r="T10">
-        <v>0.05504312201777514</v>
+        <v>0.02908944612856671</v>
       </c>
     </row>
   </sheetData>
